--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -26,16 +26,16 @@
     <t>CLI Command</t>
   </si>
   <si>
-    <t>AuthTest</t>
+    <t>HelpTest</t>
   </si>
   <si>
-    <t>testAuthValidate</t>
+    <t>cliHelpTest</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>FAIL</t>
   </si>
   <si>
-    <t>cx auth validate</t>
+    <t>cx --help</t>
   </si>
 </sst>
 </file>
@@ -87,9 +87,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.14453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.4765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.9140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.55859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.01953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
